--- a/fig/concentration_vitality.xlsx
+++ b/fig/concentration_vitality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CQB\会议\2024UQ-Bio\Assignments\UQbio2024_Team3\fig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2E2B27-4AA9-4121-AFB9-59BDD7F81C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D7C4AC-25A5-493A-8754-D52E5336BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3053" yWindow="3458" windowWidth="16200" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4943" yWindow="5715" windowWidth="16200" windowHeight="9308" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="1">
-        <v>-2.9700000000000001E-4</v>
+        <v>-3.6900000000000002E-4</v>
       </c>
       <c r="C3" s="1">
-        <v>-2.6299999999999999E-5</v>
+        <v>-9.8300000000000004E-5</v>
       </c>
       <c r="D3" s="1">
-        <v>-2.42E-4</v>
+        <v>-3.1399999999999999E-4</v>
       </c>
       <c r="E3" s="1">
-        <v>-8.2000000000000001E-5</v>
+        <v>-1.54E-4</v>
       </c>
       <c r="F3" s="1">
-        <v>-2.22E-4</v>
+        <v>-2.9399999999999999E-4</v>
       </c>
     </row>
   </sheetData>
